--- a/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.15/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/home-spam/confidence/168/stop-words-topk-0.15/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="60">
   <si>
     <t>anchor score</t>
   </si>
@@ -52,10 +52,13 @@
     <t>excellent</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
     <t>wonderful</t>
   </si>
   <si>
-    <t>love</t>
+    <t>awesome</t>
   </si>
   <si>
     <t>best</t>
@@ -64,121 +67,121 @@
     <t>pleased</t>
   </si>
   <si>
+    <t>beautiful</t>
+  </si>
+  <si>
+    <t>salad</t>
+  </si>
+  <si>
     <t>loved</t>
   </si>
   <si>
-    <t>awesome</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
     <t>perfect</t>
   </si>
   <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>christmas</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>salad</t>
-  </si>
-  <si>
-    <t>christmas</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>potatoes</t>
+  </si>
+  <si>
+    <t>wife</t>
+  </si>
+  <si>
+    <t>family</t>
+  </si>
+  <si>
+    <t>daughter</t>
+  </si>
+  <si>
+    <t>husband</t>
+  </si>
+  <si>
+    <t>cake</t>
+  </si>
+  <si>
+    <t>cheese</t>
+  </si>
+  <si>
+    <t>cooke</t>
+  </si>
+  <si>
+    <t>sturdy</t>
+  </si>
+  <si>
+    <t>ever</t>
   </si>
   <si>
     <t>cakes</t>
   </si>
   <si>
-    <t>daughter</t>
-  </si>
-  <si>
-    <t>wife</t>
-  </si>
-  <si>
-    <t>cooke</t>
-  </si>
-  <si>
-    <t>husband</t>
-  </si>
-  <si>
-    <t>cake</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>sturdy</t>
-  </si>
-  <si>
-    <t>cheese</t>
-  </si>
-  <si>
-    <t>ever</t>
-  </si>
-  <si>
     <t>gift</t>
   </si>
   <si>
+    <t>ze</t>
+  </si>
+  <si>
+    <t>perfectly</t>
+  </si>
+  <si>
     <t>bread</t>
   </si>
   <si>
-    <t>perfectly</t>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>day</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>cooking</t>
-  </si>
-  <si>
-    <t>years</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
     <t>kitchen</t>
   </si>
   <si>
+    <t>tea</t>
+  </si>
+  <si>
     <t>good</t>
   </si>
   <si>
-    <t>tea</t>
+    <t>pan</t>
   </si>
   <si>
     <t>works</t>
   </si>
   <si>
-    <t>pan</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
+    <t>little</t>
+  </si>
+  <si>
     <t>bought</t>
   </si>
   <si>
-    <t>makes</t>
-  </si>
-  <si>
-    <t>little</t>
+    <t>coffee</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>coffee</t>
+    <t>clean</t>
   </si>
   <si>
     <t>quality</t>
-  </si>
-  <si>
-    <t>clean</t>
   </si>
   <si>
     <t>like</t>
@@ -548,7 +551,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q50"/>
+  <dimension ref="A1:Q51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -559,7 +562,7 @@
         <v>9</v>
       </c>
       <c r="J1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -617,13 +620,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.2248062015503876</v>
+        <v>0.2635658914728682</v>
       </c>
       <c r="C3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D3">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -635,19 +638,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="J3" s="1" t="s">
         <v>10</v>
       </c>
       <c r="K3">
-        <v>0.967741935483871</v>
+        <v>0.956989247311828</v>
       </c>
       <c r="L3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="M3">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -659,7 +662,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -667,13 +670,13 @@
         <v>11</v>
       </c>
       <c r="K4">
-        <v>0.8828125</v>
+        <v>0.90625</v>
       </c>
       <c r="L4">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="M4">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -685,7 +688,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -693,13 +696,13 @@
         <v>12</v>
       </c>
       <c r="K5">
-        <v>0.8695652173913043</v>
+        <v>0.848297213622291</v>
       </c>
       <c r="L5">
-        <v>60</v>
+        <v>548</v>
       </c>
       <c r="M5">
-        <v>60</v>
+        <v>548</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -711,7 +714,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>9</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -719,13 +722,13 @@
         <v>13</v>
       </c>
       <c r="K6">
-        <v>0.8436532507739938</v>
+        <v>0.8405797101449275</v>
       </c>
       <c r="L6">
-        <v>545</v>
+        <v>58</v>
       </c>
       <c r="M6">
-        <v>545</v>
+        <v>58</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -737,7 +740,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>101</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -745,13 +748,13 @@
         <v>14</v>
       </c>
       <c r="K7">
-        <v>0.7142857142857143</v>
+        <v>0.7391304347826086</v>
       </c>
       <c r="L7">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="M7">
-        <v>165</v>
+        <v>34</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -763,7 +766,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>66</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -771,13 +774,13 @@
         <v>15</v>
       </c>
       <c r="K8">
-        <v>0.7012987012987013</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L8">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="M8">
-        <v>54</v>
+        <v>168</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -789,7 +792,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>23</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -797,13 +800,13 @@
         <v>16</v>
       </c>
       <c r="K9">
-        <v>0.676056338028169</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L9">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="M9">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -815,7 +818,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -823,13 +826,13 @@
         <v>17</v>
       </c>
       <c r="K10">
-        <v>0.6739130434782609</v>
+        <v>0.6590909090909091</v>
       </c>
       <c r="L10">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="M10">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -849,13 +852,13 @@
         <v>18</v>
       </c>
       <c r="K11">
-        <v>0.6666666666666666</v>
+        <v>0.6575342465753424</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -867,7 +870,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -875,13 +878,13 @@
         <v>19</v>
       </c>
       <c r="K12">
-        <v>0.6406779661016949</v>
+        <v>0.647887323943662</v>
       </c>
       <c r="L12">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="M12">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -893,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>106</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -901,13 +904,13 @@
         <v>20</v>
       </c>
       <c r="K13">
-        <v>0.6342857142857142</v>
+        <v>0.6440677966101694</v>
       </c>
       <c r="L13">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="M13">
-        <v>111</v>
+        <v>190</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -919,7 +922,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>64</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -927,13 +930,13 @@
         <v>21</v>
       </c>
       <c r="K14">
-        <v>0.6301369863013698</v>
+        <v>0.6107544141252006</v>
       </c>
       <c r="L14">
-        <v>46</v>
+        <v>761</v>
       </c>
       <c r="M14">
-        <v>46</v>
+        <v>761</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -945,7 +948,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>27</v>
+        <v>485</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -953,13 +956,13 @@
         <v>22</v>
       </c>
       <c r="K15">
-        <v>0.6176470588235294</v>
+        <v>0.6029411764705882</v>
       </c>
       <c r="L15">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="M15">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -971,7 +974,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -979,13 +982,13 @@
         <v>23</v>
       </c>
       <c r="K16">
-        <v>0.6163723916532905</v>
+        <v>0.6</v>
       </c>
       <c r="L16">
-        <v>768</v>
+        <v>105</v>
       </c>
       <c r="M16">
-        <v>768</v>
+        <v>105</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -997,7 +1000,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>478</v>
+        <v>70</v>
       </c>
     </row>
     <row r="17" spans="10:17">
@@ -1005,13 +1008,13 @@
         <v>24</v>
       </c>
       <c r="K17">
-        <v>0.59375</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="L17">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="M17">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1023,7 +1026,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18" spans="10:17">
@@ -1031,7 +1034,7 @@
         <v>25</v>
       </c>
       <c r="K18">
-        <v>0.5857142857142857</v>
+        <v>0.5694444444444444</v>
       </c>
       <c r="L18">
         <v>41</v>
@@ -1049,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="10:17">
@@ -1057,7 +1060,7 @@
         <v>26</v>
       </c>
       <c r="K19">
-        <v>0.5138888888888888</v>
+        <v>0.5692307692307692</v>
       </c>
       <c r="L19">
         <v>37</v>
@@ -1075,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20" spans="10:17">
@@ -1083,13 +1086,13 @@
         <v>27</v>
       </c>
       <c r="K20">
-        <v>0.5128205128205128</v>
+        <v>0.5571428571428572</v>
       </c>
       <c r="L20">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="M20">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1101,7 +1104,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>57</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="10:17">
@@ -1109,13 +1112,13 @@
         <v>28</v>
       </c>
       <c r="K21">
-        <v>0.5087719298245614</v>
+        <v>0.543859649122807</v>
       </c>
       <c r="L21">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1127,7 +1130,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="10:17">
@@ -1135,13 +1138,13 @@
         <v>29</v>
       </c>
       <c r="K22">
-        <v>0.5</v>
+        <v>0.5288461538461539</v>
       </c>
       <c r="L22">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M22">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1153,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" spans="10:17">
@@ -1161,13 +1164,13 @@
         <v>30</v>
       </c>
       <c r="K23">
-        <v>0.4923076923076923</v>
+        <v>0.5060240963855421</v>
       </c>
       <c r="L23">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="M23">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1179,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>33</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="10:17">
@@ -1187,13 +1190,13 @@
         <v>31</v>
       </c>
       <c r="K24">
-        <v>0.4850299401197605</v>
+        <v>0.5042735042735043</v>
       </c>
       <c r="L24">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="M24">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1205,7 +1208,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>86</v>
+        <v>58</v>
       </c>
     </row>
     <row r="25" spans="10:17">
@@ -1213,13 +1216,13 @@
         <v>32</v>
       </c>
       <c r="K25">
-        <v>0.4698795180722892</v>
+        <v>0.4970059880239521</v>
       </c>
       <c r="L25">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="M25">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1231,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>44</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="10:17">
@@ -1239,13 +1242,13 @@
         <v>33</v>
       </c>
       <c r="K26">
-        <v>0.4285714285714285</v>
+        <v>0.4736842105263158</v>
       </c>
       <c r="L26">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="M26">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1257,7 +1260,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="10:17">
@@ -1265,13 +1268,13 @@
         <v>34</v>
       </c>
       <c r="K27">
-        <v>0.4096385542168675</v>
+        <v>0.46875</v>
       </c>
       <c r="L27">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="M27">
-        <v>68</v>
+        <v>30</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1283,7 +1286,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>98</v>
+        <v>34</v>
       </c>
     </row>
     <row r="28" spans="10:17">
@@ -1291,13 +1294,13 @@
         <v>35</v>
       </c>
       <c r="K28">
-        <v>0.39</v>
+        <v>0.4096385542168675</v>
       </c>
       <c r="L28">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="M28">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1309,7 +1312,7 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>61</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="10:17">
@@ -1317,13 +1320,13 @@
         <v>36</v>
       </c>
       <c r="K29">
-        <v>0.3815789473684211</v>
+        <v>0.4074074074074074</v>
       </c>
       <c r="L29">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="M29">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1335,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="10:17">
@@ -1343,25 +1346,25 @@
         <v>37</v>
       </c>
       <c r="K30">
-        <v>0.3533834586466165</v>
+        <v>0.3815789473684211</v>
       </c>
       <c r="L30">
+        <v>29</v>
+      </c>
+      <c r="M30">
+        <v>29</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>47</v>
-      </c>
-      <c r="M30">
-        <v>47</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>86</v>
       </c>
     </row>
     <row r="31" spans="10:17">
@@ -1369,13 +1372,13 @@
         <v>38</v>
       </c>
       <c r="K31">
-        <v>0.3382352941176471</v>
+        <v>0.38</v>
       </c>
       <c r="L31">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="M31">
-        <v>138</v>
+        <v>38</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1387,7 +1390,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>270</v>
+        <v>62</v>
       </c>
     </row>
     <row r="32" spans="10:17">
@@ -1395,13 +1398,13 @@
         <v>39</v>
       </c>
       <c r="K32">
-        <v>0.2972972972972973</v>
+        <v>0.3455882352941176</v>
       </c>
       <c r="L32">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="M32">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1413,7 +1416,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>78</v>
+        <v>267</v>
       </c>
     </row>
     <row r="33" spans="10:17">
@@ -1421,13 +1424,13 @@
         <v>40</v>
       </c>
       <c r="K33">
-        <v>0.2840466926070039</v>
+        <v>0.3229571984435798</v>
       </c>
       <c r="L33">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="M33">
-        <v>73</v>
+        <v>83</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -1439,7 +1442,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="34" spans="10:17">
@@ -1447,13 +1450,13 @@
         <v>41</v>
       </c>
       <c r="K34">
-        <v>0.2821917808219178</v>
+        <v>0.2986301369863014</v>
       </c>
       <c r="L34">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="M34">
-        <v>206</v>
+        <v>218</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1465,7 +1468,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>524</v>
+        <v>512</v>
       </c>
     </row>
     <row r="35" spans="10:17">
@@ -1473,13 +1476,13 @@
         <v>42</v>
       </c>
       <c r="K35">
-        <v>0.2488038277511962</v>
+        <v>0.297029702970297</v>
       </c>
       <c r="L35">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="M35">
-        <v>52</v>
+        <v>30</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1491,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>157</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="10:17">
@@ -1499,13 +1502,13 @@
         <v>43</v>
       </c>
       <c r="K36">
-        <v>0.2335844994617869</v>
+        <v>0.2932330827067669</v>
       </c>
       <c r="L36">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="M36">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1517,7 +1520,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>712</v>
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="10:17">
@@ -1525,13 +1528,13 @@
         <v>44</v>
       </c>
       <c r="K37">
-        <v>0.2086330935251799</v>
+        <v>0.2488038277511962</v>
       </c>
       <c r="L37">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="M37">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1543,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>110</v>
+        <v>157</v>
       </c>
     </row>
     <row r="38" spans="10:17">
@@ -1551,13 +1554,13 @@
         <v>45</v>
       </c>
       <c r="K38">
-        <v>0.1814569536423841</v>
+        <v>0.2446043165467626</v>
       </c>
       <c r="L38">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -1569,7 +1572,7 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>618</v>
+        <v>105</v>
       </c>
     </row>
     <row r="39" spans="10:17">
@@ -1577,13 +1580,13 @@
         <v>46</v>
       </c>
       <c r="K39">
-        <v>0.1724137931034483</v>
+        <v>0.2217438105489774</v>
       </c>
       <c r="L39">
-        <v>55</v>
+        <v>206</v>
       </c>
       <c r="M39">
-        <v>55</v>
+        <v>206</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -1595,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>264</v>
+        <v>723</v>
       </c>
     </row>
     <row r="40" spans="10:17">
@@ -1603,13 +1606,13 @@
         <v>47</v>
       </c>
       <c r="K40">
-        <v>0.159846547314578</v>
+        <v>0.1818181818181818</v>
       </c>
       <c r="L40">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="M40">
-        <v>125</v>
+        <v>58</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -1621,7 +1624,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>657</v>
+        <v>261</v>
       </c>
     </row>
     <row r="41" spans="10:17">
@@ -1629,13 +1632,13 @@
         <v>48</v>
       </c>
       <c r="K41">
-        <v>0.1167883211678832</v>
+        <v>0.1695364238410596</v>
       </c>
       <c r="L41">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="M41">
-        <v>48</v>
+        <v>128</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -1647,7 +1650,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>363</v>
+        <v>627</v>
       </c>
     </row>
     <row r="42" spans="10:17">
@@ -1655,13 +1658,13 @@
         <v>49</v>
       </c>
       <c r="K42">
-        <v>0.1107011070110701</v>
+        <v>0.1572890025575447</v>
       </c>
       <c r="L42">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="M42">
-        <v>30</v>
+        <v>123</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -1673,7 +1676,7 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>241</v>
+        <v>659</v>
       </c>
     </row>
     <row r="43" spans="10:17">
@@ -1681,13 +1684,13 @@
         <v>50</v>
       </c>
       <c r="K43">
-        <v>0.1065292096219931</v>
+        <v>0.1202749140893471</v>
       </c>
       <c r="L43">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="M43">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -1699,7 +1702,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="44" spans="10:17">
@@ -1707,25 +1710,25 @@
         <v>51</v>
       </c>
       <c r="K44">
-        <v>0.0975609756097561</v>
+        <v>0.1094890510948905</v>
       </c>
       <c r="L44">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M44">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="N44">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O44">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P44" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44">
-        <v>333</v>
+        <v>366</v>
       </c>
     </row>
     <row r="45" spans="10:17">
@@ -1733,13 +1736,13 @@
         <v>52</v>
       </c>
       <c r="K45">
-        <v>0.08181818181818182</v>
+        <v>0.1022727272727273</v>
       </c>
       <c r="L45">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="M45">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -1751,7 +1754,7 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>404</v>
+        <v>395</v>
       </c>
     </row>
     <row r="46" spans="10:17">
@@ -1759,25 +1762,25 @@
         <v>53</v>
       </c>
       <c r="K46">
-        <v>0.081145584725537</v>
+        <v>0.0972972972972973</v>
       </c>
       <c r="L46">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="M46">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>385</v>
+        <v>334</v>
       </c>
     </row>
     <row r="47" spans="10:17">
@@ -1785,13 +1788,13 @@
         <v>54</v>
       </c>
       <c r="K47">
-        <v>0.07675438596491228</v>
+        <v>0.08552631578947369</v>
       </c>
       <c r="L47">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="M47">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -1803,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="48" spans="10:17">
@@ -1811,25 +1814,25 @@
         <v>55</v>
       </c>
       <c r="K48">
-        <v>0.05738880918220947</v>
+        <v>0.07159904534606205</v>
       </c>
       <c r="L48">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="M48">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="N48">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>657</v>
+        <v>389</v>
       </c>
     </row>
     <row r="49" spans="10:17">
@@ -1837,13 +1840,13 @@
         <v>56</v>
       </c>
       <c r="K49">
-        <v>0.05228758169934641</v>
+        <v>0.06169296987087518</v>
       </c>
       <c r="L49">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="M49">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="N49">
         <v>0.98</v>
@@ -1855,7 +1858,7 @@
         <v>1</v>
       </c>
       <c r="Q49">
-        <v>1015</v>
+        <v>654</v>
       </c>
     </row>
     <row r="50" spans="10:17">
@@ -1863,25 +1866,51 @@
         <v>57</v>
       </c>
       <c r="K50">
-        <v>0.02683982683982684</v>
+        <v>0.04664179104477612</v>
       </c>
       <c r="L50">
-        <v>31</v>
+        <v>50</v>
       </c>
       <c r="M50">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="N50">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>1124</v>
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="51" spans="10:17">
+      <c r="J51" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K51">
+        <v>0.02592912705272256</v>
+      </c>
+      <c r="L51">
+        <v>30</v>
+      </c>
+      <c r="M51">
+        <v>30</v>
+      </c>
+      <c r="N51">
+        <v>1</v>
+      </c>
+      <c r="O51">
+        <v>0</v>
+      </c>
+      <c r="P51" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q51">
+        <v>1127</v>
       </c>
     </row>
   </sheetData>
